--- a/Sprint Task Sheet.xlsx
+++ b/Sprint Task Sheet.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daisy/git/team202-one-punch-man/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifanliang/Google Drive/SJSU-MSSE/myGit/team202-one-punch-man/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96F9FE4-7F2B-F146-BAA5-BFAFFE47C21D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Stand-Up" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
   <si>
     <t>Week #1 (10 hrs / week)</t>
   </si>
@@ -143,9 +144,6 @@
     <t>Character (1 enter your character name) design</t>
   </si>
   <si>
-    <t>Character (2 enter your character name) design</t>
-  </si>
-  <si>
     <t>Character (3 enter your character name) design</t>
   </si>
   <si>
@@ -180,9 +178,6 @@
   </si>
   <si>
     <t>Ultimate skill</t>
-  </si>
-  <si>
-    <t>Character (2 enter your character name) skills</t>
   </si>
   <si>
     <t>Character (3 enter your character name) skills</t>
@@ -295,13 +290,25 @@
   <si>
     <t>Character (1 Hawking) skills</t>
   </si>
+  <si>
+    <t>Character (2 Darwin) skills</t>
+  </si>
+  <si>
+    <t>Character (Darwin) post-pro</t>
+  </si>
+  <si>
+    <t>Strategy pattern</t>
+  </si>
+  <si>
+    <t>Character (Darwin) design</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="m&quot;/&quot;d"/>
+    <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -616,7 +623,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -660,7 +667,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -671,6 +678,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -688,24 +713,6 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1080,31 +1087,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1113,13 +1120,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -1131,28 +1138,28 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -1656,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1673,51 +1680,51 @@
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="32" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="36" t="s">
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="46"/>
     </row>
     <row r="2" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="38" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1797,10 +1804,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="46"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="9">
         <v>43194</v>
       </c>
@@ -1879,9 +1886,9 @@
       <c r="AD3" s="27"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11">
         <v>200</v>
@@ -1986,47 +1993,47 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="10">
         <v>200</v>
       </c>
       <c r="E5" s="11">
-        <f>SUM(E6:E15)</f>
-        <v>0</v>
+        <f>SUM(E6:E59)</f>
+        <v>2</v>
       </c>
       <c r="F5" s="11">
-        <f t="shared" ref="F5:AC5" si="4">SUM(F6:F15)</f>
-        <v>0</v>
+        <f t="shared" ref="F5:AC5" si="4">SUM(F6:F59)</f>
+        <v>3</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="4"/>
@@ -2038,15 +2045,15 @@
       </c>
       <c r="P5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" s="11">
         <f t="shared" si="4"/>
@@ -2062,42 +2069,42 @@
       </c>
       <c r="V5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="28" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2134,7 +2141,7 @@
       <c r="AC6" s="26"/>
     </row>
     <row r="7" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
         <v>38</v>
       </c>
@@ -2169,7 +2176,7 @@
       <c r="AC7" s="26"/>
     </row>
     <row r="8" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="13" t="s">
         <v>39</v>
       </c>
@@ -2202,16 +2209,26 @@
       <c r="AC8" s="26"/>
     </row>
     <row r="9" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="13" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+      <c r="E9" s="16">
+        <v>2</v>
+      </c>
+      <c r="F9" s="17">
+        <v>3</v>
+      </c>
+      <c r="G9" s="17">
+        <v>2</v>
+      </c>
+      <c r="H9" s="18">
+        <v>3</v>
+      </c>
       <c r="I9" s="20"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
@@ -2235,9 +2252,9 @@
       <c r="AC9" s="26"/>
     </row>
     <row r="10" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2268,9 +2285,9 @@
       <c r="AC10" s="26"/>
     </row>
     <row r="11" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -2301,9 +2318,9 @@
       <c r="AC11" s="26"/>
     </row>
     <row r="12" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>37</v>
@@ -2336,11 +2353,11 @@
       <c r="AC12" s="26"/>
     </row>
     <row r="13" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="42" t="s">
-        <v>44</v>
+      <c r="A13" s="32" t="s">
+        <v>43</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="13"/>
@@ -2371,9 +2388,9 @@
       <c r="AC13" s="26"/>
     </row>
     <row r="14" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="13"/>
@@ -2404,9 +2421,9 @@
       <c r="AC14" s="26"/>
     </row>
     <row r="15" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="13"/>
@@ -2437,9 +2454,9 @@
       <c r="AC15" s="26"/>
     </row>
     <row r="16" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>37</v>
@@ -2472,14 +2489,14 @@
       <c r="AC16" s="26"/>
     </row>
     <row r="17" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="42" t="s">
-        <v>90</v>
+      <c r="A17" s="32" t="s">
+        <v>88</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="16"/>
@@ -2509,12 +2526,12 @@
       <c r="AC17" s="26"/>
     </row>
     <row r="18" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="16"/>
@@ -2544,12 +2561,12 @@
       <c r="AC18" s="26"/>
     </row>
     <row r="19" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="16"/>
@@ -2579,12 +2596,12 @@
       <c r="AC19" s="26"/>
     </row>
     <row r="20" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="16"/>
@@ -2614,32 +2631,62 @@
       <c r="AC20" s="26"/>
     </row>
     <row r="21" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
-        <v>53</v>
+      <c r="A21" s="32" t="s">
+        <v>89</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
-      <c r="C21" s="14"/>
+      <c r="C21" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="D21" s="13"/>
       <c r="E21" s="16"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="17"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="24"/>
+      <c r="I21" s="20">
+        <v>2</v>
+      </c>
+      <c r="J21" s="21">
+        <v>1</v>
+      </c>
+      <c r="K21" s="21">
+        <v>0</v>
+      </c>
+      <c r="L21" s="21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="21">
+        <v>0</v>
+      </c>
+      <c r="N21" s="21">
+        <v>0</v>
+      </c>
+      <c r="O21" s="22">
+        <v>0</v>
+      </c>
+      <c r="P21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>0</v>
+      </c>
+      <c r="R21" s="17">
+        <v>0</v>
+      </c>
+      <c r="S21" s="23">
+        <v>0</v>
+      </c>
+      <c r="T21" s="23">
+        <v>0</v>
+      </c>
+      <c r="U21" s="23">
+        <v>0</v>
+      </c>
+      <c r="V21" s="24">
+        <v>0</v>
+      </c>
       <c r="W21" s="25"/>
       <c r="X21" s="26"/>
       <c r="Y21" s="26"/>
@@ -2649,30 +2696,60 @@
       <c r="AC21" s="26"/>
     </row>
     <row r="22" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
-      <c r="C22" s="14"/>
+      <c r="C22" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="D22" s="13"/>
       <c r="E22" s="16"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="24"/>
+      <c r="I22" s="20">
+        <v>0</v>
+      </c>
+      <c r="J22" s="21">
+        <v>1</v>
+      </c>
+      <c r="K22" s="21">
+        <v>2</v>
+      </c>
+      <c r="L22" s="21">
+        <v>0</v>
+      </c>
+      <c r="M22" s="21">
+        <v>0</v>
+      </c>
+      <c r="N22" s="21">
+        <v>0</v>
+      </c>
+      <c r="O22" s="22">
+        <v>0</v>
+      </c>
+      <c r="P22" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>0</v>
+      </c>
+      <c r="R22" s="17">
+        <v>0</v>
+      </c>
+      <c r="S22" s="23">
+        <v>0</v>
+      </c>
+      <c r="T22" s="23">
+        <v>0</v>
+      </c>
+      <c r="U22" s="23">
+        <v>0</v>
+      </c>
+      <c r="V22" s="24">
+        <v>0</v>
+      </c>
       <c r="W22" s="25"/>
       <c r="X22" s="26"/>
       <c r="Y22" s="26"/>
@@ -2682,30 +2759,60 @@
       <c r="AC22" s="26"/>
     </row>
     <row r="23" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
-      <c r="C23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="D23" s="13"/>
       <c r="E23" s="16"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
       <c r="H23" s="18"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="17"/>
-      <c r="R23" s="17"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="24"/>
+      <c r="I23" s="20">
+        <v>0</v>
+      </c>
+      <c r="J23" s="21">
+        <v>0</v>
+      </c>
+      <c r="K23" s="21">
+        <v>1</v>
+      </c>
+      <c r="L23" s="21">
+        <v>2</v>
+      </c>
+      <c r="M23" s="21">
+        <v>0</v>
+      </c>
+      <c r="N23" s="21">
+        <v>0</v>
+      </c>
+      <c r="O23" s="22">
+        <v>0</v>
+      </c>
+      <c r="P23" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>0</v>
+      </c>
+      <c r="R23" s="17">
+        <v>0</v>
+      </c>
+      <c r="S23" s="23">
+        <v>0</v>
+      </c>
+      <c r="T23" s="23">
+        <v>0</v>
+      </c>
+      <c r="U23" s="23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="24">
+        <v>0</v>
+      </c>
       <c r="W23" s="25"/>
       <c r="X23" s="26"/>
       <c r="Y23" s="26"/>
@@ -2715,30 +2822,60 @@
       <c r="AC23" s="26"/>
     </row>
     <row r="24" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
-      <c r="C24" s="14"/>
+      <c r="C24" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="D24" s="13"/>
       <c r="E24" s="16"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
       <c r="H24" s="18"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="17"/>
-      <c r="R24" s="17"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="24"/>
+      <c r="I24" s="20">
+        <v>0</v>
+      </c>
+      <c r="J24" s="21">
+        <v>0</v>
+      </c>
+      <c r="K24" s="21">
+        <v>0</v>
+      </c>
+      <c r="L24" s="21">
+        <v>0</v>
+      </c>
+      <c r="M24" s="21">
+        <v>1</v>
+      </c>
+      <c r="N24" s="21">
+        <v>0</v>
+      </c>
+      <c r="O24" s="22">
+        <v>0</v>
+      </c>
+      <c r="P24" s="16">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>3</v>
+      </c>
+      <c r="R24" s="17">
+        <v>1</v>
+      </c>
+      <c r="S24" s="23">
+        <v>0</v>
+      </c>
+      <c r="T24" s="23">
+        <v>0</v>
+      </c>
+      <c r="U24" s="23">
+        <v>0</v>
+      </c>
+      <c r="V24" s="24">
+        <v>0</v>
+      </c>
       <c r="W24" s="25"/>
       <c r="X24" s="26"/>
       <c r="Y24" s="26"/>
@@ -2748,11 +2885,11 @@
       <c r="AC24" s="26"/>
     </row>
     <row r="25" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="42" t="s">
-        <v>54</v>
+      <c r="A25" s="32" t="s">
+        <v>52</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
@@ -2783,9 +2920,9 @@
       <c r="AC25" s="26"/>
     </row>
     <row r="26" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="13"/>
@@ -2816,9 +2953,9 @@
       <c r="AC26" s="26"/>
     </row>
     <row r="27" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="13"/>
@@ -2849,9 +2986,9 @@
       <c r="AC27" s="26"/>
     </row>
     <row r="28" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -2882,11 +3019,11 @@
       <c r="AC28" s="26"/>
     </row>
     <row r="29" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
-        <v>55</v>
+      <c r="A29" s="32" t="s">
+        <v>53</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -2917,9 +3054,9 @@
       <c r="AC29" s="26"/>
     </row>
     <row r="30" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -2950,9 +3087,9 @@
       <c r="AC30" s="26"/>
     </row>
     <row r="31" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
@@ -2983,9 +3120,9 @@
       <c r="AC31" s="26"/>
     </row>
     <row r="32" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
@@ -3016,11 +3153,11 @@
       <c r="AC32" s="26"/>
     </row>
     <row r="33" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="42" t="s">
-        <v>56</v>
+      <c r="A33" s="32" t="s">
+        <v>54</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>37</v>
@@ -3053,9 +3190,9 @@
       <c r="AC33" s="26"/>
     </row>
     <row r="34" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>37</v>
@@ -3088,9 +3225,9 @@
       <c r="AC34" s="26"/>
     </row>
     <row r="35" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>37</v>
@@ -3123,9 +3260,9 @@
       <c r="AC35" s="26"/>
     </row>
     <row r="36" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>37</v>
@@ -3158,11 +3295,11 @@
       <c r="AC36" s="26"/>
     </row>
     <row r="37" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="42" t="s">
-        <v>57</v>
+      <c r="A37" s="32" t="s">
+        <v>55</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="13"/>
@@ -3193,9 +3330,9 @@
       <c r="AC37" s="26"/>
     </row>
     <row r="38" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="13"/>
@@ -3226,9 +3363,9 @@
       <c r="AC38" s="26"/>
     </row>
     <row r="39" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
@@ -3259,11 +3396,11 @@
       <c r="AC39" s="26"/>
     </row>
     <row r="40" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="42" t="s">
-        <v>61</v>
+      <c r="A40" s="32" t="s">
+        <v>59</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C40" s="14"/>
       <c r="D40" s="13"/>
@@ -3294,9 +3431,9 @@
       <c r="AC40" s="26"/>
     </row>
     <row r="41" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C41" s="14"/>
       <c r="D41" s="13"/>
@@ -3327,9 +3464,9 @@
       <c r="AC41" s="26"/>
     </row>
     <row r="42" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="13"/>
@@ -3360,9 +3497,9 @@
       <c r="AC42" s="26"/>
     </row>
     <row r="43" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="13"/>
@@ -3394,10 +3531,10 @@
     </row>
     <row r="44" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="13"/>
@@ -3428,11 +3565,11 @@
       <c r="AC44" s="26"/>
     </row>
     <row r="45" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="42" t="s">
-        <v>68</v>
+      <c r="A45" s="32" t="s">
+        <v>66</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C45" s="14"/>
       <c r="D45" s="13"/>
@@ -3463,11 +3600,13 @@
       <c r="AC45" s="26"/>
     </row>
     <row r="46" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="13" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
-      <c r="C46" s="14"/>
+      <c r="C46" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="D46" s="13"/>
       <c r="E46" s="16"/>
       <c r="F46" s="17"/>
@@ -3480,13 +3619,27 @@
       <c r="M46" s="21"/>
       <c r="N46" s="21"/>
       <c r="O46" s="22"/>
-      <c r="P46" s="16"/>
-      <c r="Q46" s="17"/>
-      <c r="R46" s="17"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="24"/>
+      <c r="P46" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="17">
+        <v>0</v>
+      </c>
+      <c r="R46" s="17">
+        <v>0</v>
+      </c>
+      <c r="S46" s="23">
+        <v>0</v>
+      </c>
+      <c r="T46" s="23">
+        <v>0</v>
+      </c>
+      <c r="U46" s="23">
+        <v>0</v>
+      </c>
+      <c r="V46" s="24">
+        <v>4</v>
+      </c>
       <c r="W46" s="25"/>
       <c r="X46" s="26"/>
       <c r="Y46" s="26"/>
@@ -3496,9 +3649,9 @@
       <c r="AC46" s="26"/>
     </row>
     <row r="47" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="13"/>
@@ -3529,9 +3682,9 @@
       <c r="AC47" s="26"/>
     </row>
     <row r="48" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="13"/>
@@ -3562,9 +3715,9 @@
       <c r="AC48" s="26"/>
     </row>
     <row r="49" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>37</v>
@@ -3597,9 +3750,9 @@
       <c r="AC49" s="26"/>
     </row>
     <row r="50" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>37</v>
@@ -3632,9 +3785,9 @@
       <c r="AC50" s="26"/>
     </row>
     <row r="51" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="13"/>
@@ -3665,9 +3818,9 @@
       <c r="AC51" s="26"/>
     </row>
     <row r="52" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="13"/>
@@ -3698,9 +3851,9 @@
       <c r="AC52" s="26"/>
     </row>
     <row r="53" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>37</v>
@@ -3733,9 +3886,9 @@
       <c r="AC53" s="26"/>
     </row>
     <row r="54" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="13"/>
@@ -3766,8 +3919,8 @@
       <c r="AC54" s="26"/>
     </row>
     <row r="55" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="42" t="s">
-        <v>76</v>
+      <c r="A55" s="32" t="s">
+        <v>74</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3799,9 +3952,13 @@
       <c r="AC55" s="26"/>
     </row>
     <row r="56" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
-      <c r="B56" s="13"/>
-      <c r="C56" s="14"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>80</v>
+      </c>
       <c r="D56" s="13"/>
       <c r="E56" s="16"/>
       <c r="F56" s="17"/>
@@ -3821,16 +3978,30 @@
       <c r="T56" s="23"/>
       <c r="U56" s="23"/>
       <c r="V56" s="24"/>
-      <c r="W56" s="25"/>
-      <c r="X56" s="26"/>
-      <c r="Y56" s="26"/>
-      <c r="Z56" s="26"/>
-      <c r="AA56" s="26"/>
-      <c r="AB56" s="26"/>
-      <c r="AC56" s="26"/>
+      <c r="W56" s="25">
+        <v>2</v>
+      </c>
+      <c r="X56" s="26">
+        <v>1</v>
+      </c>
+      <c r="Y56" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z56" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA56" s="26">
+        <v>1</v>
+      </c>
+      <c r="AB56" s="26">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="57" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="13"/>
@@ -3861,7 +4032,7 @@
       <c r="AC57" s="26"/>
     </row>
     <row r="58" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
       <c r="D58" s="13"/>
@@ -3892,9 +4063,9 @@
       <c r="AC58" s="26"/>
     </row>
     <row r="59" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="44"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>37</v>
@@ -4047,7 +4218,7 @@
     </row>
     <row r="67" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -4068,10 +4239,10 @@
     </row>
     <row r="68" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
@@ -4094,7 +4265,7 @@
         <v>37</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -4114,10 +4285,10 @@
     </row>
     <row r="70" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -4137,10 +4308,10 @@
     </row>
     <row r="71" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -4160,10 +4331,10 @@
     </row>
     <row r="72" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
@@ -4183,7 +4354,7 @@
     </row>
     <row r="73" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="31" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B73" s="31">
         <v>200</v>
@@ -19982,6 +20153,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -19996,11 +20172,6 @@
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47646,29 +47817,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint Task Sheet.xlsx
+++ b/Sprint Task Sheet.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10410"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yifanliang/Google Drive/SJSU-MSSE/myGit/team202-one-punch-man/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Daisy/git/team202-one-punch-man/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96F9FE4-7F2B-F146-BAA5-BFAFFE47C21D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +16,12 @@
     <sheet name="Burndown" sheetId="2" r:id="rId2"/>
     <sheet name="Weekly Stand-Up" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>Week #1 (10 hrs / week)</t>
   </si>
@@ -139,9 +138,6 @@
   </si>
   <si>
     <t>Game basic structure design</t>
-  </si>
-  <si>
-    <t>Character (1 enter your character name) design</t>
   </si>
   <si>
     <t>Character (3 enter your character name) design</t>
@@ -301,6 +297,12 @@
   </si>
   <si>
     <t>Character (Darwin) design</t>
+  </si>
+  <si>
+    <t>Character (Hawking) post-pro</t>
+  </si>
+  <si>
+    <t>Character (Hawking) design</t>
   </si>
 </sst>
 </file>
@@ -678,24 +680,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -713,6 +697,24 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1087,55 +1089,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
                 <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4</c:v>
@@ -1663,8 +1665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1680,51 +1682,51 @@
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="42"/>
-      <c r="P1" s="40" t="s">
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="42"/>
-      <c r="W1" s="44" t="s">
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="45"/>
-      <c r="Z1" s="45"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="45"/>
-      <c r="AC1" s="46"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="38"/>
     </row>
     <row r="2" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="45" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1804,10 +1806,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="39"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="9">
         <v>43194</v>
       </c>
@@ -1886,9 +1888,9 @@
       <c r="AD3" s="27"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11">
         <v>200</v>
@@ -1993,59 +1995,59 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="10">
         <v>200</v>
       </c>
       <c r="E5" s="11">
         <f>SUM(E6:E59)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" s="11">
         <f t="shared" ref="F5:AC5" si="4">SUM(F6:F59)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" s="11">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J5" s="11">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" s="11">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L5" s="11">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5" s="11">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Q5" s="11">
         <f t="shared" si="4"/>
@@ -2053,11 +2055,11 @@
       </c>
       <c r="R5" s="11">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T5" s="11">
         <f t="shared" si="4"/>
@@ -2065,7 +2067,7 @@
       </c>
       <c r="U5" s="11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="11">
         <f t="shared" si="4"/>
@@ -2104,7 +2106,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="42" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2141,7 +2143,7 @@
       <c r="AC6" s="26"/>
     </row>
     <row r="7" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="33"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="13" t="s">
         <v>38</v>
       </c>
@@ -2176,16 +2178,26 @@
       <c r="AC7" s="26"/>
     </row>
     <row r="8" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="33"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="13" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
+      <c r="E8" s="16">
+        <v>3</v>
+      </c>
+      <c r="F8" s="17">
+        <v>2</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>2</v>
+      </c>
       <c r="I8" s="20"/>
       <c r="J8" s="21"/>
       <c r="K8" s="21"/>
@@ -2209,12 +2221,12 @@
       <c r="AC8" s="26"/>
     </row>
     <row r="9" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="16">
@@ -2252,9 +2264,9 @@
       <c r="AC9" s="26"/>
     </row>
     <row r="10" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
@@ -2285,9 +2297,9 @@
       <c r="AC10" s="26"/>
     </row>
     <row r="11" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="15"/>
@@ -2318,9 +2330,9 @@
       <c r="AC11" s="26"/>
     </row>
     <row r="12" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="34"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>37</v>
@@ -2353,11 +2365,11 @@
       <c r="AC12" s="26"/>
     </row>
     <row r="13" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="32" t="s">
-        <v>43</v>
+      <c r="A13" s="42" t="s">
+        <v>42</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="13"/>
@@ -2388,9 +2400,9 @@
       <c r="AC13" s="26"/>
     </row>
     <row r="14" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="33"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="13"/>
@@ -2421,9 +2433,9 @@
       <c r="AC14" s="26"/>
     </row>
     <row r="15" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="33"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="13"/>
@@ -2454,9 +2466,9 @@
       <c r="AC15" s="26"/>
     </row>
     <row r="16" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="33"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>37</v>
@@ -2489,34 +2501,62 @@
       <c r="AC16" s="26"/>
     </row>
     <row r="17" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="32" t="s">
-        <v>88</v>
+      <c r="A17" s="42" t="s">
+        <v>87</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="16"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
       <c r="H17" s="18"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="24"/>
+      <c r="I17" s="20">
+        <v>0</v>
+      </c>
+      <c r="J17" s="21">
+        <v>0</v>
+      </c>
+      <c r="K17" s="21">
+        <v>0</v>
+      </c>
+      <c r="L17" s="21">
+        <v>1</v>
+      </c>
+      <c r="M17" s="21">
+        <v>2</v>
+      </c>
+      <c r="N17" s="21">
+        <v>0</v>
+      </c>
+      <c r="O17" s="22">
+        <v>0</v>
+      </c>
+      <c r="P17" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>0</v>
+      </c>
+      <c r="R17" s="17">
+        <v>0</v>
+      </c>
+      <c r="S17" s="23">
+        <v>0</v>
+      </c>
+      <c r="T17" s="23">
+        <v>0</v>
+      </c>
+      <c r="U17" s="23">
+        <v>0</v>
+      </c>
+      <c r="V17" s="24">
+        <v>0</v>
+      </c>
       <c r="W17" s="25"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="26"/>
@@ -2526,32 +2566,60 @@
       <c r="AC17" s="26"/>
     </row>
     <row r="18" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="33"/>
+      <c r="A18" s="43"/>
       <c r="B18" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="16"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
       <c r="H18" s="18"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="16"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="24"/>
+      <c r="I18" s="20">
+        <v>1</v>
+      </c>
+      <c r="J18" s="21">
+        <v>0</v>
+      </c>
+      <c r="K18" s="21">
+        <v>1</v>
+      </c>
+      <c r="L18" s="21">
+        <v>0</v>
+      </c>
+      <c r="M18" s="21">
+        <v>0</v>
+      </c>
+      <c r="N18" s="21">
+        <v>1</v>
+      </c>
+      <c r="O18" s="22">
+        <v>0</v>
+      </c>
+      <c r="P18" s="16">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>0</v>
+      </c>
+      <c r="R18" s="17">
+        <v>0</v>
+      </c>
+      <c r="S18" s="23">
+        <v>0</v>
+      </c>
+      <c r="T18" s="23">
+        <v>0</v>
+      </c>
+      <c r="U18" s="23">
+        <v>0</v>
+      </c>
+      <c r="V18" s="24">
+        <v>0</v>
+      </c>
       <c r="W18" s="25"/>
       <c r="X18" s="26"/>
       <c r="Y18" s="26"/>
@@ -2561,32 +2629,60 @@
       <c r="AC18" s="26"/>
     </row>
     <row r="19" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="33"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="16"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
       <c r="H19" s="18"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="16"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="24"/>
+      <c r="I19" s="20">
+        <v>0</v>
+      </c>
+      <c r="J19" s="21">
+        <v>1</v>
+      </c>
+      <c r="K19" s="21">
+        <v>0</v>
+      </c>
+      <c r="L19" s="21">
+        <v>1</v>
+      </c>
+      <c r="M19" s="21">
+        <v>0</v>
+      </c>
+      <c r="N19" s="21">
+        <v>0</v>
+      </c>
+      <c r="O19" s="22">
+        <v>1</v>
+      </c>
+      <c r="P19" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>0</v>
+      </c>
+      <c r="R19" s="17">
+        <v>1</v>
+      </c>
+      <c r="S19" s="23">
+        <v>0</v>
+      </c>
+      <c r="T19" s="23">
+        <v>0</v>
+      </c>
+      <c r="U19" s="23">
+        <v>0</v>
+      </c>
+      <c r="V19" s="24">
+        <v>0</v>
+      </c>
       <c r="W19" s="25"/>
       <c r="X19" s="26"/>
       <c r="Y19" s="26"/>
@@ -2596,32 +2692,60 @@
       <c r="AC19" s="26"/>
     </row>
     <row r="20" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="33"/>
+      <c r="A20" s="43"/>
       <c r="B20" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="16"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="17"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="24"/>
+      <c r="I20" s="20">
+        <v>0</v>
+      </c>
+      <c r="J20" s="21">
+        <v>0</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0</v>
+      </c>
+      <c r="L20" s="21">
+        <v>0</v>
+      </c>
+      <c r="M20" s="21">
+        <v>0</v>
+      </c>
+      <c r="N20" s="21">
+        <v>0</v>
+      </c>
+      <c r="O20" s="22">
+        <v>1</v>
+      </c>
+      <c r="P20" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>0</v>
+      </c>
+      <c r="R20" s="17">
+        <v>0</v>
+      </c>
+      <c r="S20" s="23">
+        <v>3</v>
+      </c>
+      <c r="T20" s="23">
+        <v>0</v>
+      </c>
+      <c r="U20" s="23">
+        <v>1</v>
+      </c>
+      <c r="V20" s="24">
+        <v>0</v>
+      </c>
       <c r="W20" s="25"/>
       <c r="X20" s="26"/>
       <c r="Y20" s="26"/>
@@ -2631,14 +2755,14 @@
       <c r="AC20" s="26"/>
     </row>
     <row r="21" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="32" t="s">
-        <v>89</v>
+      <c r="A21" s="42" t="s">
+        <v>88</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="16"/>
@@ -2696,12 +2820,12 @@
       <c r="AC21" s="26"/>
     </row>
     <row r="22" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="33"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="16"/>
@@ -2759,12 +2883,12 @@
       <c r="AC22" s="26"/>
     </row>
     <row r="23" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="33"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="16"/>
@@ -2822,12 +2946,12 @@
       <c r="AC23" s="26"/>
     </row>
     <row r="24" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="33"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="16"/>
@@ -2885,11 +3009,11 @@
       <c r="AC24" s="26"/>
     </row>
     <row r="25" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="32" t="s">
-        <v>52</v>
+      <c r="A25" s="42" t="s">
+        <v>51</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="13"/>
@@ -2920,9 +3044,9 @@
       <c r="AC25" s="26"/>
     </row>
     <row r="26" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="33"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="13"/>
@@ -2953,9 +3077,9 @@
       <c r="AC26" s="26"/>
     </row>
     <row r="27" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="33"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="13"/>
@@ -2986,9 +3110,9 @@
       <c r="AC27" s="26"/>
     </row>
     <row r="28" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="33"/>
+      <c r="A28" s="43"/>
       <c r="B28" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="13"/>
@@ -3019,11 +3143,11 @@
       <c r="AC28" s="26"/>
     </row>
     <row r="29" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="32" t="s">
-        <v>53</v>
+      <c r="A29" s="42" t="s">
+        <v>52</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="13"/>
@@ -3054,9 +3178,9 @@
       <c r="AC29" s="26"/>
     </row>
     <row r="30" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="33"/>
+      <c r="A30" s="43"/>
       <c r="B30" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="13"/>
@@ -3087,9 +3211,9 @@
       <c r="AC30" s="26"/>
     </row>
     <row r="31" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="13"/>
@@ -3120,9 +3244,9 @@
       <c r="AC31" s="26"/>
     </row>
     <row r="32" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="33"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="13"/>
@@ -3153,11 +3277,11 @@
       <c r="AC32" s="26"/>
     </row>
     <row r="33" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="32" t="s">
-        <v>54</v>
+      <c r="A33" s="42" t="s">
+        <v>53</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="14" t="s">
         <v>37</v>
@@ -3190,9 +3314,9 @@
       <c r="AC33" s="26"/>
     </row>
     <row r="34" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="33"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>37</v>
@@ -3225,9 +3349,9 @@
       <c r="AC34" s="26"/>
     </row>
     <row r="35" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="33"/>
+      <c r="A35" s="43"/>
       <c r="B35" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>37</v>
@@ -3260,9 +3384,9 @@
       <c r="AC35" s="26"/>
     </row>
     <row r="36" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="33"/>
+      <c r="A36" s="43"/>
       <c r="B36" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>37</v>
@@ -3295,13 +3419,15 @@
       <c r="AC36" s="26"/>
     </row>
     <row r="37" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>56</v>
+      <c r="C37" s="14" t="s">
+        <v>76</v>
       </c>
-      <c r="C37" s="14"/>
       <c r="D37" s="13"/>
       <c r="E37" s="16"/>
       <c r="F37" s="17"/>
@@ -3330,9 +3456,9 @@
       <c r="AC37" s="26"/>
     </row>
     <row r="38" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="33"/>
+      <c r="A38" s="43"/>
       <c r="B38" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="13"/>
@@ -3363,9 +3489,9 @@
       <c r="AC38" s="26"/>
     </row>
     <row r="39" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="33"/>
+      <c r="A39" s="43"/>
       <c r="B39" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="13"/>
@@ -3396,13 +3522,15 @@
       <c r="AC39" s="26"/>
     </row>
     <row r="40" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="32" t="s">
+      <c r="A40" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="13" t="s">
-        <v>60</v>
+      <c r="C40" s="14" t="s">
+        <v>76</v>
       </c>
-      <c r="C40" s="14"/>
       <c r="D40" s="13"/>
       <c r="E40" s="16"/>
       <c r="F40" s="17"/>
@@ -3431,11 +3559,13 @@
       <c r="AC40" s="26"/>
     </row>
     <row r="41" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="33"/>
+      <c r="A41" s="43"/>
       <c r="B41" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
-      <c r="C41" s="14"/>
+      <c r="C41" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="D41" s="13"/>
       <c r="E41" s="16"/>
       <c r="F41" s="17"/>
@@ -3464,9 +3594,9 @@
       <c r="AC41" s="26"/>
     </row>
     <row r="42" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="33"/>
+      <c r="A42" s="43"/>
       <c r="B42" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C42" s="14"/>
       <c r="D42" s="13"/>
@@ -3497,9 +3627,9 @@
       <c r="AC42" s="26"/>
     </row>
     <row r="43" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="33"/>
+      <c r="A43" s="43"/>
       <c r="B43" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" s="14"/>
       <c r="D43" s="13"/>
@@ -3531,10 +3661,10 @@
     </row>
     <row r="44" spans="1:29" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="14"/>
       <c r="D44" s="13"/>
@@ -3565,13 +3695,15 @@
       <c r="AC44" s="26"/>
     </row>
     <row r="45" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="32" t="s">
-        <v>66</v>
+      <c r="A45" s="42" t="s">
+        <v>65</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
-      <c r="C45" s="14"/>
+      <c r="C45" s="14" t="s">
+        <v>76</v>
+      </c>
       <c r="D45" s="13"/>
       <c r="E45" s="16"/>
       <c r="F45" s="17"/>
@@ -3584,13 +3716,27 @@
       <c r="M45" s="21"/>
       <c r="N45" s="21"/>
       <c r="O45" s="22"/>
-      <c r="P45" s="16"/>
-      <c r="Q45" s="17"/>
-      <c r="R45" s="17"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="24"/>
+      <c r="P45" s="16">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="17">
+        <v>0</v>
+      </c>
+      <c r="R45" s="17">
+        <v>0</v>
+      </c>
+      <c r="S45" s="23">
+        <v>0</v>
+      </c>
+      <c r="T45" s="23">
+        <v>0</v>
+      </c>
+      <c r="U45" s="23">
+        <v>0</v>
+      </c>
+      <c r="V45" s="24">
+        <v>0</v>
+      </c>
       <c r="W45" s="25"/>
       <c r="X45" s="26"/>
       <c r="Y45" s="26"/>
@@ -3600,12 +3746,12 @@
       <c r="AC45" s="26"/>
     </row>
     <row r="46" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="33"/>
+      <c r="A46" s="43"/>
       <c r="B46" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="16"/>
@@ -3649,9 +3795,9 @@
       <c r="AC46" s="26"/>
     </row>
     <row r="47" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="33"/>
+      <c r="A47" s="43"/>
       <c r="B47" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="13"/>
@@ -3682,9 +3828,9 @@
       <c r="AC47" s="26"/>
     </row>
     <row r="48" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="33"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="13"/>
@@ -3715,9 +3861,9 @@
       <c r="AC48" s="26"/>
     </row>
     <row r="49" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="33"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="14" t="s">
         <v>37</v>
@@ -3750,9 +3896,9 @@
       <c r="AC49" s="26"/>
     </row>
     <row r="50" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="33"/>
+      <c r="A50" s="43"/>
       <c r="B50" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>37</v>
@@ -3785,9 +3931,9 @@
       <c r="AC50" s="26"/>
     </row>
     <row r="51" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="33"/>
+      <c r="A51" s="43"/>
       <c r="B51" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="13"/>
@@ -3818,9 +3964,9 @@
       <c r="AC51" s="26"/>
     </row>
     <row r="52" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="33"/>
+      <c r="A52" s="43"/>
       <c r="B52" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="13"/>
@@ -3851,9 +3997,9 @@
       <c r="AC52" s="26"/>
     </row>
     <row r="53" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="33"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="14" t="s">
         <v>37</v>
@@ -3886,9 +4032,9 @@
       <c r="AC53" s="26"/>
     </row>
     <row r="54" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="33"/>
+      <c r="A54" s="43"/>
       <c r="B54" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="13"/>
@@ -3919,8 +4065,8 @@
       <c r="AC54" s="26"/>
     </row>
     <row r="55" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="32" t="s">
-        <v>74</v>
+      <c r="A55" s="42" t="s">
+        <v>73</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
@@ -3952,12 +4098,12 @@
       <c r="AC55" s="26"/>
     </row>
     <row r="56" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="33"/>
+      <c r="A56" s="43"/>
       <c r="B56" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="16"/>
@@ -4001,7 +4147,7 @@
       </c>
     </row>
     <row r="57" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="33"/>
+      <c r="A57" s="43"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="13"/>
@@ -4032,7 +4178,7 @@
       <c r="AC57" s="26"/>
     </row>
     <row r="58" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="33"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
       <c r="D58" s="13"/>
@@ -4063,9 +4209,9 @@
       <c r="AC58" s="26"/>
     </row>
     <row r="59" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="34"/>
+      <c r="A59" s="44"/>
       <c r="B59" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C59" s="14" t="s">
         <v>37</v>
@@ -4218,7 +4364,7 @@
     </row>
     <row r="67" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67" s="19"/>
       <c r="C67" s="19"/>
@@ -4239,10 +4385,10 @@
     </row>
     <row r="68" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="30" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
@@ -4265,7 +4411,7 @@
         <v>37</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C69" s="19"/>
       <c r="D69" s="19"/>
@@ -4285,10 +4431,10 @@
     </row>
     <row r="70" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="19"/>
       <c r="D70" s="19"/>
@@ -4308,10 +4454,10 @@
     </row>
     <row r="71" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="30" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B71" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="19"/>
       <c r="D71" s="19"/>
@@ -4331,10 +4477,10 @@
     </row>
     <row r="72" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B72" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
@@ -4354,7 +4500,7 @@
     </row>
     <row r="73" spans="1:17" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B73" s="31">
         <v>200</v>
@@ -20153,11 +20299,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -20172,6 +20313,11 @@
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A28"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47817,29 +47963,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Sprint Task Sheet.xlsx
+++ b/Sprint Task Sheet.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="98">
   <si>
     <t>Week #1 (10 hrs / week)</t>
   </si>
@@ -304,6 +304,18 @@
   <si>
     <t>Character (Hawking) design</t>
   </si>
+  <si>
+    <t>Design Hawking player</t>
+  </si>
+  <si>
+    <t>Design Start Screen</t>
+  </si>
+  <si>
+    <t>Implement hawking basic attack</t>
+  </si>
+  <si>
+    <t>set image size adjustable</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +324,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m&quot;/&quot;d"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -364,6 +376,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12.5"/>
+      <color rgb="FF24292E"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -607,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -680,6 +704,24 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -697,24 +739,8 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1665,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
@@ -1682,51 +1708,51 @@
       <c r="B1" s="4"/>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="35" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="32" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="36" t="s">
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="37"/>
-      <c r="AC1" s="38"/>
+      <c r="X1" s="45"/>
+      <c r="Y1" s="45"/>
+      <c r="Z1" s="45"/>
+      <c r="AA1" s="45"/>
+      <c r="AB1" s="45"/>
+      <c r="AC1" s="46"/>
     </row>
     <row r="2" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="38" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1806,10 +1832,10 @@
       </c>
     </row>
     <row r="3" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="46"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="39"/>
       <c r="E3" s="9">
         <v>43194</v>
       </c>
@@ -1888,9 +1914,9 @@
       <c r="AD3" s="27"/>
     </row>
     <row r="4" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="10"/>
       <c r="E4" s="11">
         <v>200</v>
@@ -1995,9 +2021,9 @@
       </c>
     </row>
     <row r="5" spans="1:30" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="10">
         <v>200</v>
       </c>
@@ -2106,7 +2132,7 @@
       </c>
     </row>
     <row r="6" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="32" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -2143,7 +2169,7 @@
       <c r="AC6" s="26"/>
     </row>
     <row r="7" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
+      <c r="A7" s="33"/>
       <c r="B7" s="13" t="s">
         <v>38</v>
       </c>
@@ -2178,7 +2204,7 @@
       <c r="AC7" s="26"/>
     </row>
     <row r="8" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A8" s="43"/>
+      <c r="A8" s="33"/>
       <c r="B8" s="13" t="s">
         <v>93</v>
       </c>
@@ -2221,7 +2247,7 @@
       <c r="AC8" s="26"/>
     </row>
     <row r="9" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+      <c r="A9" s="33"/>
       <c r="B9" s="13" t="s">
         <v>91</v>
       </c>
@@ -2264,7 +2290,7 @@
       <c r="AC9" s="26"/>
     </row>
     <row r="10" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
+      <c r="A10" s="33"/>
       <c r="B10" s="13" t="s">
         <v>39</v>
       </c>
@@ -2297,7 +2323,7 @@
       <c r="AC10" s="26"/>
     </row>
     <row r="11" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A11" s="43"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="13" t="s">
         <v>40</v>
       </c>
@@ -2330,7 +2356,7 @@
       <c r="AC11" s="26"/>
     </row>
     <row r="12" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="13" t="s">
         <v>41</v>
       </c>
@@ -2365,7 +2391,7 @@
       <c r="AC12" s="26"/>
     </row>
     <row r="13" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="32" t="s">
         <v>42</v>
       </c>
       <c r="B13" s="13" t="s">
@@ -2400,7 +2426,7 @@
       <c r="AC13" s="26"/>
     </row>
     <row r="14" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="13" t="s">
         <v>44</v>
       </c>
@@ -2433,7 +2459,7 @@
       <c r="AC14" s="26"/>
     </row>
     <row r="15" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A15" s="43"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="13" t="s">
         <v>45</v>
       </c>
@@ -2466,7 +2492,7 @@
       <c r="AC15" s="26"/>
     </row>
     <row r="16" spans="1:30" ht="13" x14ac:dyDescent="0.15">
-      <c r="A16" s="43"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="13" t="s">
         <v>46</v>
       </c>
@@ -2501,7 +2527,7 @@
       <c r="AC16" s="26"/>
     </row>
     <row r="17" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="32" t="s">
         <v>87</v>
       </c>
       <c r="B17" s="13" t="s">
@@ -2566,7 +2592,7 @@
       <c r="AC17" s="26"/>
     </row>
     <row r="18" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A18" s="43"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="13" t="s">
         <v>48</v>
       </c>
@@ -2629,7 +2655,7 @@
       <c r="AC18" s="26"/>
     </row>
     <row r="19" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="13" t="s">
         <v>49</v>
       </c>
@@ -2692,7 +2718,7 @@
       <c r="AC19" s="26"/>
     </row>
     <row r="20" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="43"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="13" t="s">
         <v>50</v>
       </c>
@@ -2755,7 +2781,7 @@
       <c r="AC20" s="26"/>
     </row>
     <row r="21" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="32" t="s">
         <v>88</v>
       </c>
       <c r="B21" s="13" t="s">
@@ -2820,7 +2846,7 @@
       <c r="AC21" s="26"/>
     </row>
     <row r="22" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A22" s="43"/>
+      <c r="A22" s="33"/>
       <c r="B22" s="13" t="s">
         <v>48</v>
       </c>
@@ -2883,7 +2909,7 @@
       <c r="AC22" s="26"/>
     </row>
     <row r="23" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A23" s="43"/>
+      <c r="A23" s="33"/>
       <c r="B23" s="13" t="s">
         <v>49</v>
       </c>
@@ -2946,7 +2972,7 @@
       <c r="AC23" s="26"/>
     </row>
     <row r="24" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
+      <c r="A24" s="33"/>
       <c r="B24" s="13" t="s">
         <v>50</v>
       </c>
@@ -3009,7 +3035,7 @@
       <c r="AC24" s="26"/>
     </row>
     <row r="25" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="32" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="13" t="s">
@@ -3044,7 +3070,7 @@
       <c r="AC25" s="26"/>
     </row>
     <row r="26" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
+      <c r="A26" s="33"/>
       <c r="B26" s="13" t="s">
         <v>48</v>
       </c>
@@ -3077,7 +3103,7 @@
       <c r="AC26" s="26"/>
     </row>
     <row r="27" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A27" s="43"/>
+      <c r="A27" s="33"/>
       <c r="B27" s="13" t="s">
         <v>49</v>
       </c>
@@ -3110,7 +3136,7 @@
       <c r="AC27" s="26"/>
     </row>
     <row r="28" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A28" s="43"/>
+      <c r="A28" s="33"/>
       <c r="B28" s="13" t="s">
         <v>50</v>
       </c>
@@ -3143,7 +3169,7 @@
       <c r="AC28" s="26"/>
     </row>
     <row r="29" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B29" s="13" t="s">
@@ -3178,7 +3204,7 @@
       <c r="AC29" s="26"/>
     </row>
     <row r="30" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A30" s="43"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="13" t="s">
         <v>48</v>
       </c>
@@ -3211,7 +3237,7 @@
       <c r="AC30" s="26"/>
     </row>
     <row r="31" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A31" s="43"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="13" t="s">
         <v>49</v>
       </c>
@@ -3244,7 +3270,7 @@
       <c r="AC31" s="26"/>
     </row>
     <row r="32" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="43"/>
+      <c r="A32" s="33"/>
       <c r="B32" s="13" t="s">
         <v>50</v>
       </c>
@@ -3277,7 +3303,7 @@
       <c r="AC32" s="26"/>
     </row>
     <row r="33" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="13" t="s">
@@ -3314,7 +3340,7 @@
       <c r="AC33" s="26"/>
     </row>
     <row r="34" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A34" s="43"/>
+      <c r="A34" s="33"/>
       <c r="B34" s="13" t="s">
         <v>48</v>
       </c>
@@ -3349,7 +3375,7 @@
       <c r="AC34" s="26"/>
     </row>
     <row r="35" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A35" s="43"/>
+      <c r="A35" s="33"/>
       <c r="B35" s="13" t="s">
         <v>49</v>
       </c>
@@ -3384,7 +3410,7 @@
       <c r="AC35" s="26"/>
     </row>
     <row r="36" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A36" s="43"/>
+      <c r="A36" s="33"/>
       <c r="B36" s="13" t="s">
         <v>50</v>
       </c>
@@ -3419,7 +3445,7 @@
       <c r="AC36" s="26"/>
     </row>
     <row r="37" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="32" t="s">
         <v>54</v>
       </c>
       <c r="B37" s="13" t="s">
@@ -3456,7 +3482,7 @@
       <c r="AC37" s="26"/>
     </row>
     <row r="38" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A38" s="43"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="13" t="s">
         <v>56</v>
       </c>
@@ -3489,7 +3515,7 @@
       <c r="AC38" s="26"/>
     </row>
     <row r="39" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A39" s="43"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="13" t="s">
         <v>57</v>
       </c>
@@ -3522,7 +3548,7 @@
       <c r="AC39" s="26"/>
     </row>
     <row r="40" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A40" s="42" t="s">
+      <c r="A40" s="32" t="s">
         <v>58</v>
       </c>
       <c r="B40" s="13" t="s">
@@ -3559,7 +3585,7 @@
       <c r="AC40" s="26"/>
     </row>
     <row r="41" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A41" s="43"/>
+      <c r="A41" s="33"/>
       <c r="B41" s="13" t="s">
         <v>60</v>
       </c>
@@ -3594,7 +3620,7 @@
       <c r="AC41" s="26"/>
     </row>
     <row r="42" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A42" s="43"/>
+      <c r="A42" s="33"/>
       <c r="B42" s="13" t="s">
         <v>61</v>
       </c>
@@ -3627,7 +3653,7 @@
       <c r="AC42" s="26"/>
     </row>
     <row r="43" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A43" s="43"/>
+      <c r="A43" s="33"/>
       <c r="B43" s="13" t="s">
         <v>62</v>
       </c>
@@ -3695,7 +3721,7 @@
       <c r="AC44" s="26"/>
     </row>
     <row r="45" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="42" t="s">
+      <c r="A45" s="32" t="s">
         <v>65</v>
       </c>
       <c r="B45" s="13" t="s">
@@ -3746,7 +3772,7 @@
       <c r="AC45" s="26"/>
     </row>
     <row r="46" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="43"/>
+      <c r="A46" s="33"/>
       <c r="B46" s="13" t="s">
         <v>89</v>
       </c>
@@ -3795,7 +3821,7 @@
       <c r="AC46" s="26"/>
     </row>
     <row r="47" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A47" s="43"/>
+      <c r="A47" s="33"/>
       <c r="B47" s="13" t="s">
         <v>66</v>
       </c>
@@ -3828,7 +3854,7 @@
       <c r="AC47" s="26"/>
     </row>
     <row r="48" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A48" s="43"/>
+      <c r="A48" s="33"/>
       <c r="B48" s="13" t="s">
         <v>66</v>
       </c>
@@ -3861,7 +3887,7 @@
       <c r="AC48" s="26"/>
     </row>
     <row r="49" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A49" s="43"/>
+      <c r="A49" s="33"/>
       <c r="B49" s="13" t="s">
         <v>67</v>
       </c>
@@ -3896,7 +3922,7 @@
       <c r="AC49" s="26"/>
     </row>
     <row r="50" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="43"/>
+      <c r="A50" s="33"/>
       <c r="B50" s="13" t="s">
         <v>68</v>
       </c>
@@ -3931,7 +3957,7 @@
       <c r="AC50" s="26"/>
     </row>
     <row r="51" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A51" s="43"/>
+      <c r="A51" s="33"/>
       <c r="B51" s="13" t="s">
         <v>69</v>
       </c>
@@ -3964,7 +3990,7 @@
       <c r="AC51" s="26"/>
     </row>
     <row r="52" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
+      <c r="A52" s="33"/>
       <c r="B52" s="13" t="s">
         <v>70</v>
       </c>
@@ -3997,7 +4023,7 @@
       <c r="AC52" s="26"/>
     </row>
     <row r="53" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
+      <c r="A53" s="33"/>
       <c r="B53" s="13" t="s">
         <v>71</v>
       </c>
@@ -4032,7 +4058,7 @@
       <c r="AC53" s="26"/>
     </row>
     <row r="54" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="43"/>
+      <c r="A54" s="33"/>
       <c r="B54" s="13" t="s">
         <v>72</v>
       </c>
@@ -4065,7 +4091,7 @@
       <c r="AC54" s="26"/>
     </row>
     <row r="55" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="42" t="s">
+      <c r="A55" s="32" t="s">
         <v>73</v>
       </c>
       <c r="B55" s="13"/>
@@ -4098,7 +4124,7 @@
       <c r="AC55" s="26"/>
     </row>
     <row r="56" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="43"/>
+      <c r="A56" s="33"/>
       <c r="B56" s="13" t="s">
         <v>90</v>
       </c>
@@ -4147,7 +4173,7 @@
       </c>
     </row>
     <row r="57" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="43"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="13"/>
@@ -4178,7 +4204,7 @@
       <c r="AC57" s="26"/>
     </row>
     <row r="58" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="43"/>
+      <c r="A58" s="33"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
       <c r="D58" s="13"/>
@@ -4209,7 +4235,7 @@
       <c r="AC58" s="26"/>
     </row>
     <row r="59" spans="1:29" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="44"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="13" t="s">
         <v>74</v>
       </c>
@@ -20299,6 +20325,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:V1"/>
+    <mergeCell ref="W1:AC1"/>
+    <mergeCell ref="A2:A5"/>
     <mergeCell ref="A55:A59"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -20313,11 +20344,6 @@
     <mergeCell ref="A17:A20"/>
     <mergeCell ref="A21:A24"/>
     <mergeCell ref="A25:A28"/>
-    <mergeCell ref="E1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:V1"/>
-    <mergeCell ref="W1:AC1"/>
-    <mergeCell ref="A2:A5"/>
   </mergeCells>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47949,43 +47975,73 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B5" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
